--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/41.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/41.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2985572980377331</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.944157470499327</v>
+        <v>-1.943550820517554</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1315571291673432</v>
+        <v>0.1312811800781614</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1476843684594</v>
+        <v>-0.1474200997549455</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3069520486880251</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.086877901409697</v>
+        <v>-2.086025963348652</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06861445596826918</v>
+        <v>0.06850495236145102</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1200982198297711</v>
+        <v>-0.1197726291054984</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3379810858757615</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.299255036665186</v>
+        <v>-2.298533772908277</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05587115623081805</v>
+        <v>0.05579815382627262</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1432618827920376</v>
+        <v>-0.142999074135674</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3797577879068145</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.468833052207822</v>
+        <v>-2.468171650422641</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001449323690287207</v>
+        <v>0.001298938736923611</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1687791432768489</v>
+        <v>-0.1685119544762126</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.415869124649293</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.539162108698803</v>
+        <v>-2.538115254217622</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07341902231532905</v>
+        <v>-0.07340734193060178</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1717707818151208</v>
+        <v>-0.1716101765251209</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4329204339744558</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.338588732234266</v>
+        <v>-2.337514136839357</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1257325454125877</v>
+        <v>-0.1255646398821332</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1475004023999455</v>
+        <v>-0.1472813951863092</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4218325719152918</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.031496087249394</v>
+        <v>-2.030473323561713</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1762648098389378</v>
+        <v>-0.1760837638756651</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1160553466660449</v>
+        <v>-0.1159619035882267</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3747159518392641</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.678230881437625</v>
+        <v>-1.677191327196898</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1060656976280476</v>
+        <v>-0.105818949500684</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07337230077641997</v>
+        <v>-0.07337084072832907</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2839282667398673</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.247471433128741</v>
+        <v>-1.24665088610165</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008727663423467071</v>
+        <v>0.008826946693648863</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01054789147270957</v>
+        <v>-0.0105858527230732</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1455674956296565</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9351014443192794</v>
+        <v>-0.9343027980135524</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07451305025554031</v>
+        <v>0.07440938684108579</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01608001368916263</v>
+        <v>-0.01617053667079897</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.03437106323308573</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5713290024212863</v>
+        <v>-0.5704471333743774</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1466116850327028</v>
+        <v>0.1464335591656119</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0219654675436156</v>
+        <v>-0.02185012374443381</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2432039652221673</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1282744891388598</v>
+        <v>-0.1273940801400418</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01075421017364834</v>
+        <v>0.01062134579737565</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04681739801909321</v>
+        <v>0.04693858201063863</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.458145764197549</v>
       </c>
       <c r="E14" t="n">
-        <v>0.324546285823655</v>
+        <v>0.3253171912156548</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1627374642766687</v>
+        <v>-0.1628951494704868</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1145008473693478</v>
+        <v>0.1146964938135295</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6562315952389041</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8690770615204179</v>
+        <v>0.869810005662054</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1810245666153002</v>
+        <v>-0.1815282832066637</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1962095186808713</v>
+        <v>0.1965029883471439</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8375172896572258</v>
       </c>
       <c r="E16" t="n">
-        <v>1.568872271300594</v>
+        <v>1.569285464910321</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5159011967461193</v>
+        <v>-0.5166210004549373</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2616079927688537</v>
+        <v>0.2618868619542173</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.020666957120101</v>
       </c>
       <c r="E17" t="n">
-        <v>2.274557315079495</v>
+        <v>2.274731060802313</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6824707831974383</v>
+        <v>-0.6830197612796199</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3718416236324605</v>
+        <v>0.3722197760880058</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.220271697880863</v>
       </c>
       <c r="E18" t="n">
-        <v>3.038325992010926</v>
+        <v>3.038258829798744</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9611720630305453</v>
+        <v>-0.9616202977944542</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4829615036872488</v>
+        <v>0.4834725205190669</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.432068972629357</v>
       </c>
       <c r="E19" t="n">
-        <v>3.668158617370939</v>
+        <v>3.668108975735848</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.201415676149117</v>
+        <v>-1.201763167594753</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6030928005591256</v>
+        <v>0.6034607326780347</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.637476357644367</v>
       </c>
       <c r="E20" t="n">
-        <v>4.330205743808762</v>
+        <v>4.329745828660125</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.461771451719956</v>
+        <v>-1.462078061819047</v>
       </c>
       <c r="G20" t="n">
-        <v>0.714820060619732</v>
+        <v>0.7151865326905501</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.823539881466113</v>
       </c>
       <c r="E21" t="n">
-        <v>4.854170282096984</v>
+        <v>4.853393536512621</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.734674880584065</v>
+        <v>-1.73478000404661</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8626221889105105</v>
+        <v>0.8629214987691468</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.984821978907414</v>
       </c>
       <c r="E22" t="n">
-        <v>5.373039252547936</v>
+        <v>5.371671187486754</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.954282173985733</v>
+        <v>-1.954275603769324</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9490395153152146</v>
+        <v>0.9492132610380327</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.11874148472406</v>
       </c>
       <c r="E23" t="n">
-        <v>5.720269349575934</v>
+        <v>5.718696877782024</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.20380439272203</v>
+        <v>-2.203872284958257</v>
       </c>
       <c r="G23" t="n">
-        <v>1.058776729827912</v>
+        <v>1.059001577233912</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.224040449916409</v>
       </c>
       <c r="E24" t="n">
-        <v>6.143566492092184</v>
+        <v>6.141560386015275</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.43358530122115</v>
+        <v>-2.433502078479968</v>
       </c>
       <c r="G24" t="n">
-        <v>1.179433644012516</v>
+        <v>1.179579648821607</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.297091523671443</v>
       </c>
       <c r="E25" t="n">
-        <v>6.434355510069923</v>
+        <v>6.432067614711469</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.557428040340116</v>
+        <v>-2.557382048825253</v>
       </c>
       <c r="G25" t="n">
-        <v>1.253406980538406</v>
+        <v>1.253564665732224</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.33614447727234</v>
       </c>
       <c r="E26" t="n">
-        <v>6.599216840254879</v>
+        <v>6.596461729507334</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.605982669627331</v>
+        <v>-2.605938138160558</v>
       </c>
       <c r="G26" t="n">
-        <v>1.317247583313389</v>
+        <v>1.317414028795752</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.340959669164689</v>
       </c>
       <c r="E27" t="n">
-        <v>6.703889147940215</v>
+        <v>6.700934010604215</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.690585886279081</v>
+        <v>-2.690445721662353</v>
       </c>
       <c r="G27" t="n">
-        <v>1.327546762546658</v>
+        <v>1.327590563989386</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.312286660975263</v>
       </c>
       <c r="E28" t="n">
-        <v>6.888231899802165</v>
+        <v>6.885148278234166</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.717642767475756</v>
+        <v>-2.717696789255119</v>
       </c>
       <c r="G28" t="n">
-        <v>1.367191448359102</v>
+        <v>1.367150567012557</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.251377443870589</v>
       </c>
       <c r="E29" t="n">
-        <v>6.852030007388084</v>
+        <v>6.848758039616357</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.738718561668022</v>
+        <v>-2.738560146450159</v>
       </c>
       <c r="G29" t="n">
-        <v>1.352944299088015</v>
+        <v>1.352852316058288</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.162919973667865</v>
       </c>
       <c r="E30" t="n">
-        <v>6.787665247348465</v>
+        <v>6.784333417605011</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.640769775441322</v>
+        <v>-2.640677062387549</v>
       </c>
       <c r="G30" t="n">
-        <v>1.336228208495202</v>
+        <v>1.336099724263202</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.055104612556491</v>
       </c>
       <c r="E31" t="n">
-        <v>6.812246617007004</v>
+        <v>6.808873905917005</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.541192305569212</v>
+        <v>-2.541144123982212</v>
       </c>
       <c r="G31" t="n">
-        <v>1.29795304779203</v>
+        <v>1.297767621684485</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.937146617852559</v>
       </c>
       <c r="E32" t="n">
-        <v>6.771832485850651</v>
+        <v>6.768385312308015</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.407232163204293</v>
+        <v>-2.40724238354093</v>
       </c>
       <c r="G32" t="n">
-        <v>1.251516218260679</v>
+        <v>1.251168726815042</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.818757957941191</v>
       </c>
       <c r="E33" t="n">
-        <v>6.605230778341332</v>
+        <v>6.601599638739242</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.373009365977439</v>
+        <v>-2.373043677107575</v>
       </c>
       <c r="G33" t="n">
-        <v>1.193502667416513</v>
+        <v>1.193217958038785</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.705365232234836</v>
       </c>
       <c r="E34" t="n">
-        <v>6.308030689196412</v>
+        <v>6.304993789167322</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.335653305547494</v>
+        <v>-2.335826321246267</v>
       </c>
       <c r="G34" t="n">
-        <v>1.143828911267617</v>
+        <v>1.143484339918162</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.601109543075283</v>
       </c>
       <c r="E35" t="n">
-        <v>6.11247038785201</v>
+        <v>6.109553211766374</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.297935153191005</v>
+        <v>-2.297861420762414</v>
       </c>
       <c r="G35" t="n">
-        <v>1.083860356029724</v>
+        <v>1.083707050980178</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.508377908882169</v>
       </c>
       <c r="E36" t="n">
-        <v>5.915324474280881</v>
+        <v>5.912436499157064</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.23395511582334</v>
+        <v>-2.233997457217976</v>
       </c>
       <c r="G36" t="n">
-        <v>1.062110019619457</v>
+        <v>1.061836990626457</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.424361907504081</v>
       </c>
       <c r="E37" t="n">
-        <v>5.609314454955418</v>
+        <v>5.606471741322419</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.189498841527306</v>
+        <v>-2.189360866982716</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9568785135153034</v>
+        <v>0.9566887072634852</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.345669538949328</v>
       </c>
       <c r="E38" t="n">
-        <v>5.303171571253682</v>
+        <v>5.300514283728228</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.143230647550455</v>
+        <v>-2.143194146348182</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8834804359372321</v>
+        <v>0.8834030533884141</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.270249928251032</v>
       </c>
       <c r="E39" t="n">
-        <v>4.989302113054857</v>
+        <v>4.986694467164494</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.084698049609971</v>
+        <v>-2.084798062904198</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8028113188664356</v>
+        <v>0.8028156990107084</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.195861021829154</v>
       </c>
       <c r="E40" t="n">
-        <v>4.698838685801389</v>
+        <v>4.696549330394845</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.105070830646465</v>
+        <v>-2.105246036417374</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7623271054017192</v>
+        <v>0.7622876841032648</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.121883880479061</v>
       </c>
       <c r="E41" t="n">
-        <v>4.377498161521385</v>
+        <v>4.375211726211022</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.999430511076857</v>
+        <v>-1.999406420283357</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6827866055051952</v>
+        <v>0.6827793052647406</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.048795015283149</v>
       </c>
       <c r="E42" t="n">
-        <v>3.999415788284395</v>
+        <v>3.997418442496032</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.909233120164791</v>
+        <v>-1.909210489419382</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6036680595069437</v>
+        <v>0.6036344784008528</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9752760132189533</v>
       </c>
       <c r="E43" t="n">
-        <v>3.698053102032294</v>
+        <v>3.696290823986568</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.85653122427535</v>
+        <v>-1.856485962784532</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5633721922459545</v>
+        <v>0.5633094101780455</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9008974274160744</v>
       </c>
       <c r="E44" t="n">
-        <v>3.396415926739103</v>
+        <v>3.394919377445921</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.761541225504876</v>
+        <v>-1.761491583869785</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5146124262019676</v>
+        <v>0.5145525642302403</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8248914626121631</v>
       </c>
       <c r="E45" t="n">
-        <v>3.11384989960936</v>
+        <v>3.112286188103997</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.678953605242625</v>
+        <v>-1.678943384905989</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4196114770708113</v>
+        <v>0.4196216974074476</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7473771054598266</v>
       </c>
       <c r="E46" t="n">
-        <v>2.819083710631985</v>
+        <v>2.817711265426531</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.600722768483646</v>
+        <v>-1.600677506992828</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3817290693040942</v>
+        <v>0.3817670305544578</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.670799198011589</v>
       </c>
       <c r="E47" t="n">
-        <v>2.489031079393528</v>
+        <v>2.487709735871256</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.478944537365224</v>
+        <v>-1.478908036162952</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3180563720595658</v>
+        <v>0.3181191541274749</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.596576312213289</v>
       </c>
       <c r="E48" t="n">
-        <v>2.195976066778698</v>
+        <v>2.19491899196088</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.374904430503252</v>
+        <v>-1.375009553965798</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2901271121285733</v>
+        <v>0.2902220152544824</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5251987709571427</v>
       </c>
       <c r="E49" t="n">
-        <v>1.915096395193955</v>
+        <v>1.91412400316541</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.287926445631639</v>
+        <v>-1.288053469815548</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2361943956984969</v>
+        <v>0.2364017225274059</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4573596532583128</v>
       </c>
       <c r="E50" t="n">
-        <v>1.781227505834718</v>
+        <v>1.780316435825991</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.166343860957399</v>
+        <v>-1.16665047105649</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1978958742258708</v>
+        <v>0.1981499225936889</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3931258095718604</v>
       </c>
       <c r="E51" t="n">
-        <v>1.505733951657338</v>
+        <v>1.504954285976793</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.090079708976874</v>
+        <v>-1.090260754940147</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1671545616717882</v>
+        <v>0.167380869125879</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3340858034003247</v>
       </c>
       <c r="E52" t="n">
-        <v>1.346651491816199</v>
+        <v>1.346109813974472</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.007683355014533</v>
+        <v>-1.008039606748715</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1445194361184306</v>
+        <v>0.1446829615046124</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2812217514432933</v>
       </c>
       <c r="E53" t="n">
-        <v>1.103949157712537</v>
+        <v>1.103654227998173</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9342093549357343</v>
+        <v>-0.9346210884973706</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1009662015666241</v>
+        <v>0.1011487075779877</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2338784343980827</v>
       </c>
       <c r="E54" t="n">
-        <v>0.959027704305121</v>
+        <v>0.9589517818043938</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9414526535147323</v>
+        <v>-0.941874607413005</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0502558112731832</v>
+        <v>0.05043101704409224</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.192866733285144</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7976719495864371</v>
+        <v>0.7975566057872553</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8951764292733811</v>
+        <v>-0.895418797256472</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02236889273682705</v>
+        <v>0.02251927769019064</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1574325746088326</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6512831478476582</v>
+        <v>0.6512670873186581</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.845860384906758</v>
+        <v>-0.8463217601034851</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01584101772237425</v>
+        <v>0.01595490147346513</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1257611802345938</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5079589870516966</v>
+        <v>0.5080232291676966</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8137101259449484</v>
+        <v>-0.8142415834500392</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01175097109961834</v>
+        <v>-0.01143414066389115</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.09683954234592708</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3977925184002717</v>
+        <v>0.3979224626803626</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8080538996407681</v>
+        <v>-0.8085152748374953</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02744794812497776</v>
+        <v>-0.0273369844700687</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.06901612413816802</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2521614816206744</v>
+        <v>0.2522520046023108</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7432248443082401</v>
+        <v>-0.74361029700424</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09278510019314204</v>
+        <v>-0.09248725038259666</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.04112395024876046</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1918979966684179</v>
+        <v>0.1919636988325088</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7263452283292446</v>
+        <v>-0.7268679255457899</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.0799220765122364</v>
+        <v>-0.07955560444141832</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.01263565694304477</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03393977385727848</v>
+        <v>0.03409599900300572</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6986860772950703</v>
+        <v>-0.6991620529727065</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1363923565243121</v>
+        <v>-0.1360550854153122</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.01714011698894811</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05323969765087993</v>
+        <v>-0.05316523519824358</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7171031239137926</v>
+        <v>-0.7175250778120652</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1683090077915763</v>
+        <v>-0.1679658964902128</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.04837814963051849</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1467178166232184</v>
+        <v>-0.1465426108523094</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7508813364969653</v>
+        <v>-0.7512711693372379</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1835008081774813</v>
+        <v>-0.1830700939906632</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.07995956366689751</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2596160352527336</v>
+        <v>-0.2595167519825518</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7538671348428736</v>
+        <v>-0.754277408356419</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2167855245059269</v>
+        <v>-0.2164759943106543</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1109492202974132</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4124582495533289</v>
+        <v>-0.4124071478701471</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7348908898053332</v>
+        <v>-0.735311383655515</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2373138006641032</v>
+        <v>-0.2369648491703761</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1407744785385491</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4364453796388679</v>
+        <v>-0.4363227355992316</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7654438561556887</v>
+        <v>-0.7659388124585067</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2527946905720082</v>
+        <v>-0.2525231216270992</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1692071378239125</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.523198517104481</v>
+        <v>-0.5231211345556629</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8058725877929506</v>
+        <v>-0.806265340729405</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2676798808588223</v>
+        <v>-0.2673805710001861</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1965049190649035</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5561605628048358</v>
+        <v>-0.5561109211697449</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7544745148486917</v>
+        <v>-0.7552702410582369</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.318969910244354</v>
+        <v>-0.318474953941536</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2221648646874949</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.636531830065087</v>
+        <v>-0.6362880020339052</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8003302452398612</v>
+        <v>-0.8009960271693155</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3172718743146272</v>
+        <v>-0.3169054022438091</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2463122315798408</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7463216063090574</v>
+        <v>-0.746057337604603</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7967414470324076</v>
+        <v>-0.7975167325686801</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3572333905627983</v>
+        <v>-0.3567851557988893</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2691093014638311</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7743676700873227</v>
+        <v>-0.7741048614309591</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9259600832221001</v>
+        <v>-0.926633165392009</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4021006683964226</v>
+        <v>-0.4016130123340591</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2910601571820211</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8170361154960385</v>
+        <v>-0.8169674932357658</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9925003149171732</v>
+        <v>-0.993174857135173</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4195132019285998</v>
+        <v>-0.419076647549418</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3132521664335252</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.868713057625661</v>
+        <v>-0.8685480721913883</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.027199817845709</v>
+        <v>-1.027836398813345</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4527891579684999</v>
+        <v>-0.4523175624351364</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3359661938043943</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8112236640461309</v>
+        <v>-0.8110834994294037</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.052092177747612</v>
+        <v>-1.052730218763339</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4671998326257688</v>
+        <v>-0.4666917358901325</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3586654709391129</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7954609848566806</v>
+        <v>-0.7953135199994988</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.117862964098776</v>
+        <v>-1.118381281171049</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4559238812196809</v>
+        <v>-0.4555106876099537</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3799665546204096</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7124908319946119</v>
+        <v>-0.7122966455985211</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.160473007583855</v>
+        <v>-1.160792758115764</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4586118297550438</v>
+        <v>-0.4581854957124984</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3979671315059267</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.560921779629289</v>
+        <v>-0.56079475544538</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.144618345364678</v>
+        <v>-1.144993577724041</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4395713426015034</v>
+        <v>-0.4392691126466853</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4108136120045334</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4220230245968718</v>
+        <v>-0.4219485621442355</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.169160293724762</v>
+        <v>-1.169437702862035</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4521846980588637</v>
+        <v>-0.4517700444010456</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4166915402620597</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3192181184198085</v>
+        <v>-0.3192283387564449</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.251645710620649</v>
+        <v>-1.251924579806013</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3955830137186062</v>
+        <v>-0.3951931808783335</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4135125493786937</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1303550576684047</v>
+        <v>-0.1302791351676774</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.308758411792725</v>
+        <v>-1.308882515880452</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3733771423039758</v>
+        <v>-0.3729975298003395</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3989325514231237</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02833902938055271</v>
+        <v>0.02830398822637091</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.301245004316908</v>
+        <v>-1.301208503114636</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3232317906217165</v>
+        <v>-0.3230784855721711</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3713966269202423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2401496659767686</v>
+        <v>0.2400109614081322</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.28916456641273</v>
+        <v>-1.288957239583821</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2872985470563625</v>
+        <v>-0.2871189611411807</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3308617859069471</v>
       </c>
       <c r="E83" t="n">
-        <v>0.422525733060265</v>
+        <v>0.4223782682030833</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.230270606569746</v>
+        <v>-1.229987357240109</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2697385486670036</v>
+        <v>-0.2696100644350036</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2774896181104664</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6285545792164825</v>
+        <v>0.6284085744073916</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.152636929479948</v>
+        <v>-1.152460263660948</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2450593557863739</v>
+        <v>-0.2449221112658285</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.213843486785177</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7422967056425428</v>
+        <v>0.7421769816990883</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.064352201566972</v>
+        <v>-1.064264598681518</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2095115649170198</v>
+        <v>-0.2094619232819289</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1434872778608279</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9674448815492096</v>
+        <v>0.9671966733737551</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9985449140135352</v>
+        <v>-0.9985609745425352</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1806245134383912</v>
+        <v>-0.1805485909376639</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.0707249032762301</v>
       </c>
       <c r="E87" t="n">
-        <v>1.110376289408717</v>
+        <v>1.110090119982899</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9429623432407319</v>
+        <v>-0.9429696434811865</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1506292854587629</v>
+        <v>-0.1504438593512175</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.001324319096214131</v>
       </c>
       <c r="E88" t="n">
-        <v>1.212273045673235</v>
+        <v>1.21192847432378</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8884047262277466</v>
+        <v>-0.8883258836308375</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1143120492454999</v>
+        <v>-0.1141529040035908</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.05773391440055369</v>
       </c>
       <c r="E89" t="n">
-        <v>1.334306785207566</v>
+        <v>1.333954913617657</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7923452422306815</v>
+        <v>-0.7920459323720451</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.112822800192773</v>
+        <v>-0.1127001561531367</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.100342124832551</v>
       </c>
       <c r="E90" t="n">
-        <v>1.371099997098465</v>
+        <v>1.37077148627801</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6922735460797993</v>
+        <v>-0.691958175692163</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07843574755569134</v>
+        <v>-0.07841384683432771</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1208144288885858</v>
       </c>
       <c r="E91" t="n">
-        <v>1.415710306468089</v>
+        <v>1.415545321033817</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5872026452656456</v>
+        <v>-0.5869164758398275</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0166961539835261</v>
+        <v>-0.01671951475298064</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1168436745272257</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438739645005992</v>
+        <v>1.43844763538781</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.459839730199498</v>
+        <v>-0.4595783815912254</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02065142426179777</v>
+        <v>-0.02078136854188864</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08981260929848404</v>
       </c>
       <c r="E93" t="n">
-        <v>1.409915375595273</v>
+        <v>1.409696368381636</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3515406630563453</v>
+        <v>-0.3513450166121635</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01407390761225408</v>
+        <v>-0.0141104088145268</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04627605137372405</v>
       </c>
       <c r="E94" t="n">
-        <v>1.409998598336454</v>
+        <v>1.409709508814454</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2119717459502009</v>
+        <v>-0.2116972569091101</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01671805470488973</v>
+        <v>-0.0168304784078897</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.005992604903161545</v>
       </c>
       <c r="E95" t="n">
-        <v>1.335140472667474</v>
+        <v>1.334813421895111</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09595486459850482</v>
+        <v>-0.0956497145475049</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01912129386252545</v>
+        <v>-0.01915049482434363</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06014611128897992</v>
       </c>
       <c r="E96" t="n">
-        <v>1.256976798120677</v>
+        <v>1.256622006434587</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03109852027237016</v>
+        <v>0.03127664613946102</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03382251808988514</v>
+        <v>-0.03383857861888514</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1103712463748804</v>
       </c>
       <c r="E97" t="n">
-        <v>1.174364357040881</v>
+        <v>1.17402562588379</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1320258046045249</v>
+        <v>0.1320360249411612</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05232570754597108</v>
+        <v>-0.05228920634369837</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1558197847639586</v>
       </c>
       <c r="E98" t="n">
-        <v>1.076199483696726</v>
+        <v>1.075993616915908</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1930674951892357</v>
+        <v>0.1930835557182357</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05732491220924246</v>
+        <v>-0.05720810836196977</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1981319510168851</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9386804741102174</v>
+        <v>0.9385738905995811</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1944151195771445</v>
+        <v>0.1943041559222354</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0513547755655168</v>
+        <v>-0.05143799830669859</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2408773940555024</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8440138759918792</v>
+        <v>0.8439087525293337</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2111399704585036</v>
+        <v>0.2110114862265037</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04510722978451848</v>
+        <v>-0.04513351065015483</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2816560184779293</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6907789087548294</v>
+        <v>0.6908854922654657</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1972417726811437</v>
+        <v>0.1970680269583256</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04930340799779007</v>
+        <v>-0.04920996491997192</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3245420694299632</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6314075131861181</v>
+        <v>0.6314513146288453</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2065159981545958</v>
+        <v>0.2062765502676868</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08128868152532694</v>
+        <v>-0.08120253868796333</v>
       </c>
     </row>
   </sheetData>
